--- a/src/uploads/modeloExel/modelo de carga de clientes exel (3).xlsx
+++ b/src/uploads/modeloExel/modelo de carga de clientes exel (3).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Node\tengoback\src\uploads\modeloExel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEBBAD-BF00-487A-8DE0-8862FC171131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -220,9 +229,6 @@
     <t>Andres Correa</t>
   </si>
   <si>
-    <t>Burgur Quenn</t>
-  </si>
-  <si>
     <t>Emilia</t>
   </si>
   <si>
@@ -242,33 +248,41 @@
   </si>
   <si>
     <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Burguer Queen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-m-d"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0B7500"/>
       <name val="Monospace"/>
     </font>
@@ -278,51 +292,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -512,20 +523,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -610,13 +626,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="4">
-        <v>33166.0</v>
+        <v>33166</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2">
-        <v>8971453.0</v>
+        <v>8971453</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>28</v>
@@ -634,10 +650,10 @@
         <v>32</v>
       </c>
       <c r="M2" s="3">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N2" s="2">
-        <v>7.8722265E7</v>
+        <v>78722265</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>33</v>
@@ -646,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="3">
-        <v>7.6589952E7</v>
+        <v>76589952</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>35</v>
@@ -658,16 +674,16 @@
         <v>32</v>
       </c>
       <c r="U2" s="2">
-        <v>5.0</v>
+        <v>15</v>
       </c>
       <c r="V2" s="2">
-        <v>6800.0</v>
+        <v>6800</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -681,13 +697,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="6">
-        <v>32633.0</v>
+        <v>32633</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>7594682.0</v>
+        <v>7594682</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>39</v>
@@ -705,10 +721,10 @@
         <v>41</v>
       </c>
       <c r="M3" s="3">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N3" s="2">
-        <v>7.8965589E7</v>
+        <v>78965589</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>42</v>
@@ -717,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="Q3" s="3">
-        <v>7.3569985E7</v>
+        <v>73569985</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>35</v>
@@ -729,16 +745,16 @@
         <v>32</v>
       </c>
       <c r="U3" s="2">
-        <v>5.0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="2">
-        <v>6900.0</v>
+        <v>6900</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -752,13 +768,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="4">
-        <v>29537.0</v>
+        <v>29537</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2">
-        <v>8659857.0</v>
+        <v>8659857</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>48</v>
@@ -776,10 +792,10 @@
         <v>50</v>
       </c>
       <c r="M4" s="3">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N4" s="2">
-        <v>7.8965589E7</v>
+        <v>78965589</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>51</v>
@@ -788,7 +804,7 @@
         <v>52</v>
       </c>
       <c r="Q4" s="3">
-        <v>7.6325594E7</v>
+        <v>76325594</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>35</v>
@@ -800,16 +816,16 @@
         <v>32</v>
       </c>
       <c r="U4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V4" s="2">
-        <v>6700.0</v>
+        <v>6700</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -823,13 +839,13 @@
         <v>47</v>
       </c>
       <c r="E5" s="4">
-        <v>31346.0</v>
+        <v>31346</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2">
-        <v>2596874.0</v>
+        <v>2596874</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>55</v>
@@ -847,10 +863,10 @@
         <v>57</v>
       </c>
       <c r="M5" s="3">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N5" s="2">
-        <v>7.8965589E7</v>
+        <v>78965589</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>58</v>
@@ -859,7 +875,7 @@
         <v>59</v>
       </c>
       <c r="Q5" s="3">
-        <v>7.6983665E7</v>
+        <v>76983665</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>35</v>
@@ -871,16 +887,16 @@
         <v>32</v>
       </c>
       <c r="U5" s="2">
-        <v>5.0</v>
+        <v>25</v>
       </c>
       <c r="V5" s="2">
-        <v>6500.0</v>
+        <v>6500</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -894,13 +910,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="6">
-        <v>34953.0</v>
+        <v>34953</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>3586574.0</v>
+        <v>3586574</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>64</v>
@@ -918,10 +934,10 @@
         <v>66</v>
       </c>
       <c r="M6" s="3">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N6" s="2">
-        <v>7.8965589E7</v>
+        <v>78965589</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>67</v>
@@ -930,7 +946,7 @@
         <v>68</v>
       </c>
       <c r="Q6" s="3">
-        <v>7.9563352E7</v>
+        <v>79563352</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>35</v>
@@ -942,18 +958,18 @@
         <v>32</v>
       </c>
       <c r="U6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V6" s="2">
-        <v>6400.0</v>
+        <v>6400</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>63</v>
@@ -965,16 +981,16 @@
         <v>47</v>
       </c>
       <c r="E7" s="6">
-        <v>32955.0</v>
+        <v>32955</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>9657854.0</v>
+        <v>9657854</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -983,25 +999,25 @@
         <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3">
+        <v>444444</v>
+      </c>
+      <c r="N7" s="2">
+        <v>78965589</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="3">
-        <v>444444.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>7.8965589E7</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="Q7" s="3">
-        <v>9.5636658E7</v>
+        <v>95636658</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>35</v>
@@ -1013,18 +1029,18 @@
         <v>32</v>
       </c>
       <c r="U7" s="2">
-        <v>5.0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="2">
-        <v>6300.0</v>
+        <v>6300</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -1036,13 +1052,13 @@
         <v>47</v>
       </c>
       <c r="E8" s="4">
-        <v>31346.0</v>
+        <v>31346</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="2">
-        <v>5983689.0</v>
+        <v>5983689</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>55</v>
@@ -1060,10 +1076,10 @@
         <v>57</v>
       </c>
       <c r="M8" s="2">
-        <v>444444.0</v>
+        <v>444444</v>
       </c>
       <c r="N8" s="2">
-        <v>7.8965589E7</v>
+        <v>78965589</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>58</v>
@@ -1072,7 +1088,7 @@
         <v>59</v>
       </c>
       <c r="Q8" s="2">
-        <v>7.6983665E7</v>
+        <v>76983665</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>35</v>
@@ -1084,49 +1100,49 @@
         <v>32</v>
       </c>
       <c r="U8" s="2">
-        <v>5.0</v>
+        <v>25</v>
       </c>
       <c r="V8" s="2">
-        <v>6500.0</v>
+        <v>6500</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>